--- a/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
+++ b/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -167,7 +167,445 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html型態及長度</t>
+    <t>功能 Use Case</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>效能需求</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資料處理量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡述/目標</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務需求目的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要參與者</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支援性參與者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸發事件Triggers</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事先條件Preconditions</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作功能描述</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Button說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>畫面示意圖</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call methods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要參數</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要處理內容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Global 參數</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>初版</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理流程說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用途分類</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>連結</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能簡述</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能簡述</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含SA功能描述、流程說明、其他</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="63"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>名稱</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢人員</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.前畫面:無
+1.1 SESSION內容:
+1.2 成立條件:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統管理模組</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提供系統權限使用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD維護職稱角色時</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0402_Title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0402_Title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0402_Title
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：呼叫WebAPI時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0402_Title</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 職稱角色新增</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5 職稱角色維護</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6 職稱角色刪除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_role_profile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_role_profile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_role_profile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代號</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色來源</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色說明</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否啟用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:預設角色 1:職稱角色 2:自定角色
+APF0402_Title 此WebAPI呼叫時固定為2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代號 = suda_work.suda_work_id(S0001~S0009)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組名稱 = suda_work.suda_work_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統流水號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行結果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>失敗訊息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>true = 執行成功; fasle = 執行失敗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RA006_APF0401_功能清單資料轉入 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總表</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0401_Menu</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0401_Menu</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供各模組於功能清單設定完成後上傳設定的清單資訊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最大處理系統數 -  30個
+concurrent數 10個 - 3秒以內</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N/A
+填寫於APF0201</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能清單資料轉入</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Framework底層功能
+1.功能清單設定完成後呼叫，進行功能清單即時同步(WebAPI)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
     <rPh sb="2" eb="3">
       <t>カタ</t>
     </rPh>
@@ -186,448 +624,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html代號</t>
+    <t>UI控制項代號</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>功能 Use Case</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>效能需求</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>資料處理量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡述/目標</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務需求目的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要參與者</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支援性參與者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>觸發事件Triggers</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事先條件Preconditions</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Global 參數</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>初版</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>處理流程說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>用途分類</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>連結</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能簡述</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能簡述</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含SA功能描述、流程說明、其他</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Sheet</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="63"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>名稱</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>可輸入長度</t>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨブチョウド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢人員</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:無
-1.1 SESSION內容:
-1.2 成立條件:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統管理模組</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>提供系統權限使用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMD維護職稱角色時</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0402_Title</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0402_Title</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0402_Title
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：呼叫WebAPI時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0402_Title</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 職稱角色新增</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5 職稱角色維護</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6 職稱角色刪除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_role_profile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_role_profile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_role_profile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色來源</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色說明</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否啟用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(100)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:預設角色 1:職稱角色 2:自定角色
-APF0402_Title 此WebAPI呼叫時固定為2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代號 = suda_work.suda_work_id(S0001~S0009)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組名稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組名稱 = suda_work.suda_work_name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統流水號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>執行結果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>失敗訊息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>true = 執行成功; fasle = 執行失敗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RA006_APF0401_功能清單資料轉入 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總表</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0401_Menu</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0401_Menu</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供各模組於功能清單設定完成後上傳設定的清單資訊</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>最大處理系統數 -  30個
-concurrent數 10個 - 3秒以內</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>N/A
-填寫於APF0201</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能清單資料轉入</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Framework底層功能
-1.功能清單設定完成後呼叫，進行功能清單即時同步(WebAPI)</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1333,6 +1331,51 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1345,24 +1388,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1372,12 +1397,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1388,31 +1407,172 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1441,9 +1601,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1455,165 +1612,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3318,7 +3316,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12363450" cy="523875"/>
+          <a:ext cx="12944475" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -4179,7 +4177,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4187,64 +4185,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4428,10 +4426,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="70">
         <v>41569</v>
@@ -4564,7 +4562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
@@ -4578,17 +4576,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="73" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="M1" s="88" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="74"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="74"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4605,250 +4603,243 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="96"/>
-    </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="99"/>
-    </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="74"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="77" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
+      <c r="A10" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="94" t="s">
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A14" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
+    </row>
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
+    </row>
+    <row r="16" spans="1:13" s="19" customFormat="1" ht="99.75" customHeight="1">
+      <c r="A16" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-    </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="99.75" customHeight="1">
-      <c r="A16" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="98"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
+      <c r="A17" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="74"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="85"/>
+      <c r="A40" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -4865,6 +4856,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4980,8 +4978,8 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="130" t="s">
-        <v>55</v>
+      <c r="K1" s="124" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -5001,7 +4999,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="131"/>
+      <c r="K2" s="125"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5014,7 +5012,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="131"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5029,344 +5027,344 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="135" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="A5" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="139"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="140"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="136"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="143" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="A11" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
+      <c r="A15" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="144"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
+        <v>55</v>
+      </c>
+      <c r="C16" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="125"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="126"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="153"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="145"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
+      <c r="A20" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="144"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
+        <v>55</v>
+      </c>
+      <c r="C21" s="145" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="108"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="104"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="109" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="111"/>
+      <c r="A27" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="D28" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="E28" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5375,180 +5373,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="104"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="134"/>
+      <c r="A31" s="126" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="151"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
+      <c r="A32" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="111"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="153"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="155"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="114"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="153"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="155"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="114"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="156"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="117"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="165"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="166"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="122"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="162" t="s">
+      <c r="B37" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="163"/>
-      <c r="D37" s="146" t="s">
+      <c r="C37" s="119"/>
+      <c r="D37" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="82"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="159"/>
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="161"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="148"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="102"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="148"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="102"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="159"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="161"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="148"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="102"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5571,14 +5569,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5587,27 +5585,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5624,16 +5622,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5655,8 +5653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5664,12 +5662,12 @@
     <col min="1" max="1" width="4.25" style="41" customWidth="1"/>
     <col min="2" max="2" width="19" style="41" customWidth="1"/>
     <col min="3" max="3" width="17.375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="41" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="41" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="41" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="41" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="41" customWidth="1"/>
     <col min="10" max="10" width="34.125" style="41" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="41" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="41"/>
@@ -5686,8 +5684,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="130" t="s">
-        <v>55</v>
+      <c r="K1" s="124" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -5713,7 +5711,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="131"/>
+      <c r="K2" s="125"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5731,7 +5729,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="131"/>
+      <c r="K3" s="125"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5776,7 +5774,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="168"/>
       <c r="C6" s="168"/>
@@ -5805,7 +5803,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>22</v>
@@ -5817,10 +5815,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -5854,7 +5852,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="167" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B10" s="168"/>
       <c r="C10" s="168"/>
@@ -5867,31 +5865,31 @@
       <c r="J10" s="169"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="132" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
+      <c r="A11" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>22</v>
@@ -5903,10 +5901,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -5917,25 +5915,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="33">
@@ -5943,25 +5941,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="69" t="s">
         <v>105</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -5969,24 +5967,24 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H15" s="43">
         <v>1</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J15" s="69"/>
     </row>
@@ -5995,25 +5993,25 @@
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
@@ -6021,27 +6019,27 @@
         <v>5</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H17" s="43">
         <v>2</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J17" s="69" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6049,22 +6047,22 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J18" s="69"/>
     </row>
@@ -6073,7 +6071,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
@@ -6082,10 +6080,10 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J19" s="69" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6093,7 +6091,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
@@ -6102,7 +6100,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J20" s="69"/>
     </row>
@@ -6119,18 +6117,18 @@
       <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="132" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
+      <c r="A22" s="126" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="128"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -6140,10 +6138,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>22</v>
@@ -6155,10 +6153,10 @@
         <v>16</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="J23" s="42" t="s">
         <v>0</v>
@@ -6169,25 +6167,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="69" t="s">
         <v>105</v>
-      </c>
-      <c r="J24" s="69" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="49.5">
@@ -6195,25 +6193,25 @@
         <v>2</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6221,7 +6219,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
@@ -6230,10 +6228,10 @@
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
       <c r="I26" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6241,7 +6239,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
@@ -6250,7 +6248,7 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J27" s="69"/>
     </row>
@@ -6267,18 +6265,18 @@
       <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="132" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="134"/>
+      <c r="A29" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="128"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="42" t="s">
@@ -6288,10 +6286,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="E30" s="42" t="s">
         <v>22</v>
@@ -6303,10 +6301,10 @@
         <v>16</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="J30" s="42" t="s">
         <v>0</v>
@@ -6317,25 +6315,25 @@
         <v>1</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6343,7 +6341,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
@@ -6352,10 +6350,10 @@
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6363,7 +6361,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
@@ -6372,7 +6370,7 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J33" s="69"/>
     </row>

--- a/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
+++ b/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="122">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -203,10 +203,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -363,7 +359,7 @@
   </si>
   <si>
     <t>Rid</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
@@ -471,19 +467,19 @@
   </si>
   <si>
     <t>角色代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>角色來源</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>角色說明</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>群組識別值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>是否啟用</t>
@@ -583,11 +579,6 @@
   <si>
     <t>功能清單資料轉入</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Framework底層功能
-1.功能清單設定完成後呼叫，進行功能清單即時同步(WebAPI)</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>UI控制項代號</t>
@@ -632,7 +623,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -785,11 +776,6 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1133,7 +1119,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1271,7 +1257,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,13 +1317,58 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1346,27 +1377,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1376,41 +1386,143 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1421,22 +1533,7 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1466,6 +1563,15 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1480,138 +1586,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2667,13 +2641,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2719,13 +2693,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4177,7 +4151,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4185,64 +4159,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>51</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>63</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4426,10 +4400,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="70">
         <v>41569</v>
@@ -4560,10 +4534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4576,17 +4550,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="88" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="89"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="89"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4603,251 +4577,224 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
+      <c r="A6" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="82" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="73" t="s">
+      <c r="A10" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A14" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
-    </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="99.75" customHeight="1">
-      <c r="A16" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="98"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="75" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="82"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="94"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A38:L38"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -4856,13 +4803,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4883,13 +4823,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -4908,13 +4848,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4978,8 +4918,8 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="124" t="s">
-        <v>52</v>
+      <c r="K1" s="126" t="s">
+        <v>51</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -4999,7 +4939,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5012,7 +4952,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="127"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5027,344 +4967,344 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="129" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="A5" s="131" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="130"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="134"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="A11" s="139" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="142" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="144"/>
+      <c r="A15" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="145" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+        <v>54</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="121"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="151"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="124"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="142" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
+      <c r="A20" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="115"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="145" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="156"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="98"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="101"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="103"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="104"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="112"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="104"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="112"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
+      <c r="A27" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="107"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="C28" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="D28" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="E28" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="165" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5373,180 +5313,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="104"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="112"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="126" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
+      <c r="A31" s="128" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="130"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="109" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="111"/>
+      <c r="A32" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="148"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="112"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="112"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="151"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="154"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="122"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="162"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="100" t="s">
+      <c r="C37" s="159"/>
+      <c r="D37" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="74"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="82"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
+      <c r="A38" s="155"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="157"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="144"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="144"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="105"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="157"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="102"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="144"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5569,14 +5509,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="82"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5585,27 +5525,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="123"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5622,16 +5562,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5653,7 +5593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -5684,8 +5624,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="124" t="s">
-        <v>52</v>
+      <c r="K1" s="126" t="s">
+        <v>51</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -5711,7 +5651,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="127"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5729,7 +5669,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="127"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5773,18 +5713,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="167" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
+      <c r="A6" s="163" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="165"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -5803,7 +5743,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>22</v>
@@ -5815,10 +5755,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -5851,45 +5791,45 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="163" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="165"/>
+    </row>
+    <row r="11" spans="1:23" s="52" customFormat="1">
+      <c r="A11" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="169"/>
-    </row>
-    <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="126" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="128"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>22</v>
@@ -5901,10 +5841,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -5915,25 +5855,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="33">
@@ -5941,25 +5881,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -5967,24 +5907,24 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15" s="43">
         <v>1</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="69"/>
     </row>
@@ -5993,25 +5933,25 @@
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
@@ -6019,27 +5959,27 @@
         <v>5</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H17" s="43">
         <v>2</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J17" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6047,22 +5987,22 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" s="69"/>
     </row>
@@ -6071,7 +6011,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
@@ -6080,10 +6020,10 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J19" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6091,7 +6031,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
@@ -6100,7 +6040,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" s="69"/>
     </row>
@@ -6117,18 +6057,18 @@
       <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="128"/>
+      <c r="A22" s="128" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -6138,10 +6078,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>120</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>22</v>
@@ -6153,10 +6093,10 @@
         <v>16</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J23" s="42" t="s">
         <v>0</v>
@@ -6167,25 +6107,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="49.5">
@@ -6193,25 +6133,25 @@
         <v>2</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6219,7 +6159,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
@@ -6228,10 +6168,10 @@
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
       <c r="I26" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6239,7 +6179,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
@@ -6248,7 +6188,7 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J27" s="69"/>
     </row>
@@ -6265,18 +6205,18 @@
       <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="126" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="128"/>
+      <c r="A29" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="130"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="42" t="s">
@@ -6286,10 +6226,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E30" s="42" t="s">
         <v>22</v>
@@ -6301,10 +6241,10 @@
         <v>16</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J30" s="42" t="s">
         <v>0</v>
@@ -6315,25 +6255,25 @@
         <v>1</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6341,7 +6281,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
@@ -6350,10 +6290,10 @@
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6361,7 +6301,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
@@ -6370,7 +6310,7 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J33" s="69"/>
     </row>

--- a/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
+++ b/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0401_Menu!$A$1:$J$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0401_Menu!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0401_Menu!$A$1:$J$67</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0401_Menu!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0401_Menu!$1:$5</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="148">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -342,10 +342,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -358,14 +354,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Rid</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(10)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -378,152 +366,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>CMD維護職稱角色時</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0402_Title</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0402_Title</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0402_Title
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：呼叫WebAPI時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0402_Title</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 職稱角色新增</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5 職稱角色維護</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6 職稱角色刪除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_role_profile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_role_profile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_role_profile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代號</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色來源</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色說明</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否啟用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar(100)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:預設角色 1:職稱角色 2:自定角色
-APF0402_Title 此WebAPI呼叫時固定為2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代號 = suda_work.suda_work_id(S0001~S0009)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組名稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組名稱 = suda_work.suda_work_name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統流水號</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -618,12 +465,267 @@
     <t>UI控制項代號</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>各模組維護功能清單時</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0401_Menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0401_Menu</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>選單結構識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>選單結構名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>順序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>父階選單結構ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>選單結構深度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模組代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_root</t>
+  </si>
+  <si>
+    <t>root_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>選單根節點識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>選單根節點名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>順序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>根節點深度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>根節點URL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模組代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效起日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效迄日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>啟用/停用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>root_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>eff_s_date</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>eff_e_date</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable_flag</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = 啟用，0 = 停用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_root</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node.root_id = apf_menu_root.root_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制大寫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制大寫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0401_Menu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：呼叫功能清單路徑刪除WebAPI時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.1 功能清單路徑新增</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前3碼ModuleID+R+6碼流水號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 功能清單路徑維護</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.3 功能清單路徑刪除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5.1 功能清單新增</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>父選單結構ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>前3碼ModuleID+N+6碼流水號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 功能清單維護</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5.3 功能清單刪除</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -790,20 +892,6 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1119,7 +1207,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1317,6 +1405,42 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,24 +1453,9 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1356,35 +1465,176 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1413,9 +1663,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1427,169 +1674,23 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2642,13 +2743,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>9524</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>171449</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2693,14 +2794,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4151,7 +4252,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4202,21 +4303,21 @@
         <v>58</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4534,10 +4635,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4552,15 +4653,15 @@
       <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="85" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="74"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="74"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4577,45 +4678,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="95"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="95"/>
+      <c r="A6" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="84"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="77" t="s">
         <v>25</v>
       </c>
@@ -4627,31 +4728,31 @@
       <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
+      <c r="A8" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="77" t="s">
         <v>27</v>
       </c>
@@ -4663,32 +4764,32 @@
       <c r="L9" s="79"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
+      <c r="A10" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="89" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="93" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="78"/>
@@ -4699,30 +4800,30 @@
       <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
+      <c r="A12" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="81"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="89" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="93" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="78"/>
@@ -4733,67 +4834,60 @@
       <c r="L13" s="79"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
+      <c r="A14" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="83" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="85"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A62:L62"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -4803,6 +4897,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4829,7 +4930,7 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -4848,14 +4949,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4887,8 +4988,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:J24"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4918,7 +5019,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="120" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="50"/>
@@ -4939,7 +5040,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="127"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -4952,7 +5053,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="127"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -4967,7 +5068,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="125" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="78"/>
@@ -4981,57 +5082,57 @@
       <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="129"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="125" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="78"/>
@@ -5045,21 +5146,21 @@
       <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="125" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="78"/>
@@ -5073,21 +5174,21 @@
       <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="125" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="78"/>
@@ -5101,18 +5202,18 @@
       <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
+      <c r="A15" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -5121,70 +5222,70 @@
       <c r="B16" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="143"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="121"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="122"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="149"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="113" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="115"/>
+      <c r="A20" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -5193,96 +5294,96 @@
       <c r="B21" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="116" t="s">
+      <c r="C21" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="143"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="98"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="101"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="112"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="100"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="110"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="112"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="100"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="107"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
@@ -5297,14 +5398,14 @@
       <c r="D28" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="108" t="s">
+      <c r="E28" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5313,180 +5414,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="112"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="100"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="130"/>
+      <c r="A31" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="124"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="148"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="107"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="149"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="110"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="149"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="151"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="152"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="154"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="113"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="161"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="162"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="158" t="s">
+      <c r="B37" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="159"/>
-      <c r="D37" s="142" t="s">
+      <c r="C37" s="115"/>
+      <c r="D37" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="82"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="81"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="155"/>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="157"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="103"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="144"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="98"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="144"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="98"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="155"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="157"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="144"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="98"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5509,14 +5610,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="81"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5525,27 +5626,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5562,16 +5663,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5591,10 +5692,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5624,7 +5725,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="120" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="39"/>
@@ -5651,7 +5752,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="127"/>
+      <c r="K2" s="121"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5669,7 +5770,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="127"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5743,7 +5844,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>22</v>
@@ -5758,7 +5859,7 @@
         <v>57</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -5792,7 +5893,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="163" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B10" s="164"/>
       <c r="C10" s="164"/>
@@ -5805,18 +5906,18 @@
       <c r="J10" s="165"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="A11" s="122" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -5826,10 +5927,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>22</v>
@@ -5844,7 +5945,7 @@
         <v>57</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -5855,163 +5956,155 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="33">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="48">
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>104</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="48">
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="43">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="H15" s="43"/>
       <c r="I15" s="43" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J15" s="69"/>
     </row>
-    <row r="16" spans="1:23" ht="49.5">
+    <row r="16" spans="1:23">
       <c r="A16" s="48">
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="49.5">
+        <v>70</v>
+      </c>
+      <c r="J16" s="69"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="48">
         <v>5</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="43">
-        <v>2</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="H17" s="43"/>
       <c r="I17" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="69" t="s">
-        <v>101</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="48">
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="69"/>
+        <v>70</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="48">
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
@@ -6020,10 +6113,10 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" s="69" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6031,7 +6124,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
@@ -6040,7 +6133,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20" s="69"/>
     </row>
@@ -6056,19 +6149,19 @@
       <c r="I21" s="43"/>
       <c r="J21" s="69"/>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="128" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
+    <row r="22" spans="1:10" s="52" customFormat="1">
+      <c r="A22" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="124"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -6078,10 +6171,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>22</v>
@@ -6096,39 +6189,39 @@
         <v>57</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="J23" s="42" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="33">
+    <row r="24" spans="1:10">
       <c r="A24" s="48">
         <v>1</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="43" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="49.5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="48">
         <v>2</v>
       </c>
@@ -6138,48 +6231,50 @@
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>69</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" s="69" t="s">
-        <v>102</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="48">
         <v>3</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
+      <c r="E26" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="43"/>
       <c r="I26" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="69" t="s">
-        <v>108</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J26" s="69"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="48">
         <v>4</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
@@ -6188,120 +6283,120 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="69"/>
+        <v>63</v>
+      </c>
+      <c r="J27" s="69" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="48"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="48">
+        <v>5</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>72</v>
+      </c>
       <c r="C28" s="49"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="46"/>
+      <c r="I28" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="69"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="128" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="130"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="42" t="s">
+      <c r="A29" s="48"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="69"/>
+    </row>
+    <row r="30" spans="1:10" s="52" customFormat="1">
+      <c r="A30" s="122" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="124"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B31" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="42" t="s">
+      <c r="C31" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F31" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="42" t="s">
+      <c r="G31" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="42" t="s">
+      <c r="H31" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="J30" s="42" t="s">
+      <c r="I31" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="42" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="49.5">
-      <c r="A31" s="48">
-        <v>1</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="69" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="E32" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>66</v>
+      </c>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
@@ -6310,20 +6405,28 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="J33" s="69"/>
+        <v>63</v>
+      </c>
+      <c r="J33" s="69" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="48"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="48">
+        <v>3</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>72</v>
+      </c>
       <c r="C34" s="49"/>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="43"/>
+      <c r="I34" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="J34" s="69"/>
     </row>
     <row r="35" spans="1:10">
@@ -6338,14 +6441,865 @@
       <c r="I35" s="43"/>
       <c r="J35" s="69"/>
     </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="124"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="48">
+        <v>1</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="45"/>
+      <c r="I38" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="33">
+      <c r="A39" s="48">
+        <v>2</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="45"/>
+      <c r="I39" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="48">
+        <v>3</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="45"/>
+      <c r="I40" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="69"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="48">
+        <v>4</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="45"/>
+      <c r="I41" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" s="69"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="48">
+        <v>5</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="45"/>
+      <c r="I42" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" s="69"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="48">
+        <v>6</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="49"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43" s="45"/>
+      <c r="I43" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="69"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="48">
+        <v>7</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="49"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="45"/>
+      <c r="I44" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J44" s="69"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="48">
+        <v>8</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="49"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="45"/>
+      <c r="I45" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="48">
+        <v>9</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="49"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="45"/>
+      <c r="I46" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" s="69"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="48">
+        <v>10</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="49"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="45"/>
+      <c r="I47" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="69"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="48">
+        <v>11</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="49"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="45"/>
+      <c r="I48" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J48" s="69"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="48">
+        <v>12</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="49"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="43">
+        <v>1</v>
+      </c>
+      <c r="I49" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J49" s="69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="48">
+        <v>13</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="49"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="48">
+        <v>14</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="49"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" s="69"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="48"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="46"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="123"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="124"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="J54" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="48">
+        <v>1</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="49"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="45"/>
+      <c r="I55" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J55" s="69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="33">
+      <c r="A56" s="48">
+        <v>2</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="49"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="45"/>
+      <c r="I56" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J56" s="69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="48">
+        <v>3</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="49"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" s="45"/>
+      <c r="I57" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J57" s="69"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="48">
+        <v>4</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="49"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58" s="45"/>
+      <c r="I58" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J58" s="69"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="48">
+        <v>5</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="49"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H59" s="45"/>
+      <c r="I59" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J59" s="69"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="48">
+        <v>6</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="49"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="45"/>
+      <c r="I60" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J60" s="69"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="48">
+        <v>7</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" s="45"/>
+      <c r="I61" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J61" s="69"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="48">
+        <v>8</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62" s="45"/>
+      <c r="I62" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J62" s="69"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="48">
+        <v>9</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="49"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H63" s="43">
+        <v>1</v>
+      </c>
+      <c r="I63" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J63" s="69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="48">
+        <v>10</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="49"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J64" s="69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="48">
+        <v>11</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="49"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J65" s="69"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="166"/>
+      <c r="B66" s="167"/>
+      <c r="C66" s="168"/>
+      <c r="D66" s="167"/>
+      <c r="E66" s="167"/>
+      <c r="F66" s="167"/>
+      <c r="G66" s="167"/>
+      <c r="H66" s="167"/>
+      <c r="I66" s="169"/>
+      <c r="J66" s="170"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="122" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="123"/>
+      <c r="C67" s="123"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="123"/>
+      <c r="F67" s="123"/>
+      <c r="G67" s="123"/>
+      <c r="H67" s="123"/>
+      <c r="I67" s="123"/>
+      <c r="J67" s="124"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="J68" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="48">
+        <v>1</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="49"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" s="45"/>
+      <c r="I69" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" s="69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="48">
+        <v>2</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="49"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J70" s="69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="48">
+        <v>3</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="49"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J71" s="69"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="48"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="69"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="48"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="69"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A29:J29"/>
+  <mergeCells count="9">
+    <mergeCell ref="A67:J67"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A53:J53"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
+++ b/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
@@ -1399,6 +1399,19 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1678,19 +1691,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2743,13 +2743,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9524</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>171449</xdr:rowOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2794,14 +2794,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>62</xdr:row>
+          <xdr:row>78</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>76</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4251,12 +4251,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
@@ -4299,7 +4299,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="77" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -4311,7 +4311,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="72"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="34" t="s">
         <v>76</v>
       </c>
@@ -4635,10 +4635,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4653,15 +4653,15 @@
       <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="M1" s="90" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="86"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="86"/>
+      <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4678,208 +4678,208 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="95"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="77" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="80" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="81"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="80" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="86"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="93" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="93" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="81"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="90" t="s">
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="91"/>
-      <c r="J62" s="91"/>
-      <c r="K62" s="91"/>
-      <c r="L62" s="92"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="96"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="96"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="96"/>
+      <c r="J78" s="96"/>
+      <c r="K78" s="96"/>
+      <c r="L78" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4887,7 +4887,7 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A78:L78"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -4930,8 +4930,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:row>77</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4949,13 +4949,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>78</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>92</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -5019,7 +5019,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="120" t="s">
+      <c r="K1" s="125" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="50"/>
@@ -5040,7 +5040,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="121"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5053,7 +5053,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="121"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5068,152 +5068,152 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="84"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="89"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="126"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="129"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="134"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="126"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="137"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="81"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="145"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -5222,70 +5222,70 @@
       <c r="B16" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="144" t="s">
+      <c r="A17" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="147"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="154"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="140"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -5294,96 +5294,96 @@
       <c r="B21" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="143"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="160"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="163"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="100"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="105"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="99"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="100"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="105"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="160"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
@@ -5398,14 +5398,14 @@
       <c r="D28" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="161" t="s">
+      <c r="E28" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5414,180 +5414,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="100"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="105"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="122" t="s">
+      <c r="A31" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="124"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="129"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="107"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="112"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="108"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="110"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="115"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="108"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="110"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="115"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="111"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="113"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="116" t="s">
+      <c r="A36" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="118"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="123"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="114" t="s">
+      <c r="B37" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="96" t="s">
+      <c r="C37" s="120"/>
+      <c r="D37" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="81"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="86"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="101"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="103"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="108"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="98"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="103"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="98"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="103"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="101"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="103"/>
+      <c r="A41" s="106"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="108"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="98"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="103"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5610,14 +5610,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="81"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="86"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5626,14 +5626,14 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -5725,7 +5725,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="120" t="s">
+      <c r="K1" s="125" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="39"/>
@@ -5752,7 +5752,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="121"/>
+      <c r="K2" s="126"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5770,7 +5770,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="121"/>
+      <c r="K3" s="126"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5814,18 +5814,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="165"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -5892,32 +5892,32 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="170"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="129"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -6150,18 +6150,18 @@
       <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="124"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="129"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -6320,18 +6320,18 @@
       <c r="J29" s="69"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="124"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="42" t="s">
@@ -6442,18 +6442,18 @@
       <c r="J35" s="69"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="122" t="s">
+      <c r="A36" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="123"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="124"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="129"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="42" t="s">
@@ -6836,18 +6836,18 @@
       <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="122" t="s">
+      <c r="A53" s="127" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="123"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="123"/>
-      <c r="G53" s="123"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="123"/>
-      <c r="J53" s="124"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="129"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="42" t="s">
@@ -7144,30 +7144,30 @@
       <c r="J65" s="69"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="166"/>
-      <c r="B66" s="167"/>
-      <c r="C66" s="168"/>
-      <c r="D66" s="167"/>
-      <c r="E66" s="167"/>
-      <c r="F66" s="167"/>
-      <c r="G66" s="167"/>
-      <c r="H66" s="167"/>
-      <c r="I66" s="169"/>
-      <c r="J66" s="170"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="75"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="122" t="s">
+      <c r="A67" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="123"/>
-      <c r="C67" s="123"/>
-      <c r="D67" s="123"/>
-      <c r="E67" s="123"/>
-      <c r="F67" s="123"/>
-      <c r="G67" s="123"/>
-      <c r="H67" s="123"/>
-      <c r="I67" s="123"/>
-      <c r="J67" s="124"/>
+      <c r="B67" s="128"/>
+      <c r="C67" s="128"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="128"/>
+      <c r="J67" s="129"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="42" t="s">

--- a/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
+++ b/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0401_Menu!$A$1:$J$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0401_Menu!$A$1:$J$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0401_Menu!$A$1:$J$67</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0401_Menu!$1:$5</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="163">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -203,18 +203,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>畫面示意圖</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>控制項名稱</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -224,10 +216,6 @@
   </si>
   <si>
     <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -718,6 +706,79 @@
   </si>
   <si>
     <t>5.3 功能清單刪除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Function說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要處理內容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFMenuRootIF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFMenuRCreate()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dt_apf_menu_root</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.Menu 路徑設定檔新增</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFMenuRUpdate()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.Menu 路徑設定檔檔修改</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFMenuRDelete()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.Menu 路徑設定檔檔刪除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFMenuNodeIF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFMenuNCreate()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dt_apf_menu_root
+dt_apf_menu_node</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.Menu 功能設定檔新增</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFMenuNUpdate()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.Menu 功能設定檔修改</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFMenuNDelete()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.Menu 功能設定檔刪除</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1207,7 +1268,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1369,9 +1430,6 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1412,38 +1470,74 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1454,38 +1548,143 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1496,10 +1695,31 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1511,36 +1731,6 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1555,142 +1745,19 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4252,7 +4319,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="76" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -4260,64 +4327,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="77" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="77"/>
       <c r="B6" s="34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4501,12 +4568,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="70">
+        <v>38</v>
+      </c>
+      <c r="D6" s="69">
         <v>41569</v>
       </c>
       <c r="E6" s="12"/>
@@ -4637,7 +4704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -4651,17 +4718,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="90" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="M1" s="78" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="91"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="91"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4678,45 +4745,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="100"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="97"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
+      <c r="A6" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="82" t="s">
         <v>25</v>
       </c>
@@ -4728,31 +4795,31 @@
       <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
+      <c r="A8" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="82" t="s">
         <v>27</v>
       </c>
@@ -4764,32 +4831,32 @@
       <c r="L9" s="84"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
+      <c r="A10" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="98" t="s">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="83"/>
@@ -4800,30 +4867,30 @@
       <c r="L11" s="84"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="86"/>
+      <c r="A12" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="98" t="s">
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="83"/>
@@ -4834,55 +4901,60 @@
       <c r="L13" s="84"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="86"/>
+      <c r="A14" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="86"/>
+      <c r="A15" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="87"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" s="96"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="96"/>
-      <c r="E78" s="96"/>
-      <c r="F78" s="96"/>
-      <c r="G78" s="96"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="96"/>
-      <c r="J78" s="96"/>
-      <c r="K78" s="96"/>
-      <c r="L78" s="97"/>
+      <c r="A78" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="89"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="89"/>
+      <c r="J78" s="89"/>
+      <c r="K78" s="89"/>
+      <c r="L78" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -4899,11 +4971,6 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4986,10 +5053,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5019,8 +5086,8 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="125" t="s">
-        <v>51</v>
+      <c r="K1" s="131" t="s">
+        <v>48</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -5040,7 +5107,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="126"/>
+      <c r="K2" s="132"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5053,7 +5120,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="126"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5068,8 +5135,8 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="130" t="s">
-        <v>33</v>
+      <c r="A5" s="136" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
@@ -5082,57 +5149,57 @@
       <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="100"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="131"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="134"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="140"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="131"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="140"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="135"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="137"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="143"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="136" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="83"/>
@@ -5146,21 +5213,21 @@
       <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="86"/>
+      <c r="A11" s="144" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="136" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="83"/>
@@ -5174,21 +5241,21 @@
       <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="136" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="83"/>
@@ -5202,455 +5269,575 @@
       <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="143" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="145"/>
+      <c r="A15" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="146" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+        <v>51</v>
+      </c>
+      <c r="C16" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="150"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="126"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="152"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="154"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="143" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="A20" s="118" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="146" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+        <v>51</v>
+      </c>
+      <c r="C21" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="123"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="103"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="160"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="163"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="109"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="104"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="105"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="117"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="104"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="105"/>
+      <c r="A26" s="110" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="112"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="139" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="164"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="165"/>
+      <c r="A27" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="166" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
+      <c r="A28" s="59">
+        <v>1</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="170" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="147" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="172"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
     <row r="29" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
+      <c r="A29" s="59">
+        <v>2</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="170" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="147" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="75"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="105"/>
-    </row>
-    <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="129"/>
+      <c r="A30" s="59">
+        <v>3</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="170" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="147" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="172"/>
+    </row>
+    <row r="31" spans="1:12" s="52" customFormat="1" ht="33">
+      <c r="A31" s="59">
+        <v>4</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="170" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="147" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="172"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="112"/>
-    </row>
-    <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="113"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="115"/>
+      <c r="A32" s="59">
+        <v>5</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="170" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="147" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="75"/>
+    </row>
+    <row r="33" spans="1:10" s="54" customFormat="1" ht="33">
+      <c r="A33" s="59">
+        <v>6</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="170" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="172"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="115"/>
-    </row>
-    <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="116"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="118"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="117"/>
+    </row>
+    <row r="35" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="61"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="117"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="121" t="s">
+      <c r="A36" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="135"/>
+    </row>
+    <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="150" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="151"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="152"/>
+    </row>
+    <row r="38" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="153"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="155"/>
+    </row>
+    <row r="39" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="153"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="155"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="156"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="158"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="122"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="123"/>
-    </row>
-    <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="63" t="s">
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="166"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="119" t="s">
+      <c r="B42" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="120"/>
-      <c r="D37" s="101" t="s">
+      <c r="C42" s="163"/>
+      <c r="D42" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="86"/>
-    </row>
-    <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="106"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="108"/>
-    </row>
-    <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="103"/>
-    </row>
-    <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="103"/>
-    </row>
-    <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="106"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="108"/>
-    </row>
-    <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="103"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="87"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="159"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="161"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="62"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="149"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="62"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="149"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="159"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="161"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="62"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="149"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="67"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="63">
+      <c r="B48" s="64"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="66"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="62">
         <v>1</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B49" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="104"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="86"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="63">
+      <c r="C49" s="115"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="87"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="62">
         <v>2</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B50" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C44:J44"/>
+  <mergeCells count="41">
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="A37:J40"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C49:J49"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A5:J5"/>
@@ -5659,20 +5846,25 @@
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:J33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5725,8 +5917,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="125" t="s">
-        <v>51</v>
+      <c r="K1" s="131" t="s">
+        <v>48</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -5752,7 +5944,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="126"/>
+      <c r="K2" s="132"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5770,7 +5962,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="126"/>
+      <c r="K3" s="132"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5814,18 +6006,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="168" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="A6" s="167" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -5844,7 +6036,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>22</v>
@@ -5856,10 +6048,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -5892,45 +6084,45 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="168" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="170"/>
+      <c r="A10" s="167" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="169"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="127" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="129"/>
+      <c r="A11" s="133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>81</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>84</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>22</v>
@@ -5942,10 +6134,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -5956,25 +6148,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="69" t="s">
-        <v>140</v>
+        <v>67</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -5982,121 +6174,121 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="69"/>
+        <v>67</v>
+      </c>
+      <c r="J14" s="68"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="48">
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="45" t="s">
-        <v>101</v>
-      </c>
       <c r="G15" s="45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="69"/>
+        <v>67</v>
+      </c>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="48">
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="69"/>
+        <v>67</v>
+      </c>
+      <c r="J16" s="68"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="48">
         <v>5</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="69"/>
+        <v>67</v>
+      </c>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="48">
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="69" t="s">
-        <v>136</v>
+        <v>67</v>
+      </c>
+      <c r="J18" s="68" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6104,7 +6296,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
@@ -6113,10 +6305,10 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="69" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="J19" s="68" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6124,7 +6316,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
@@ -6133,9 +6325,9 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="69"/>
+        <v>60</v>
+      </c>
+      <c r="J20" s="68"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="48"/>
@@ -6147,21 +6339,21 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="69"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
-      <c r="A22" s="127" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="129"/>
+      <c r="A22" s="133" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -6171,10 +6363,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>22</v>
@@ -6186,10 +6378,10 @@
         <v>16</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J23" s="42" t="s">
         <v>0</v>
@@ -6200,25 +6392,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="69" t="s">
-        <v>140</v>
+        <v>67</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6226,55 +6418,55 @@
         <v>2</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="69"/>
+        <v>67</v>
+      </c>
+      <c r="J25" s="68"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="48">
         <v>3</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="45" t="s">
-        <v>101</v>
-      </c>
       <c r="G26" s="45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H26" s="43"/>
       <c r="I26" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="69"/>
+        <v>67</v>
+      </c>
+      <c r="J26" s="68"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="48">
         <v>4</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
@@ -6283,10 +6475,10 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="69" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="J27" s="68" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6294,7 +6486,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="45"/>
@@ -6303,9 +6495,9 @@
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
       <c r="I28" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="69"/>
+        <v>60</v>
+      </c>
+      <c r="J28" s="68"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="48"/>
@@ -6317,21 +6509,21 @@
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
       <c r="I29" s="43"/>
-      <c r="J29" s="69"/>
+      <c r="J29" s="68"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1">
-      <c r="A30" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
+      <c r="A30" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="135"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="42" t="s">
@@ -6341,10 +6533,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E31" s="42" t="s">
         <v>22</v>
@@ -6356,10 +6548,10 @@
         <v>16</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I31" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J31" s="42" t="s">
         <v>0</v>
@@ -6370,25 +6562,25 @@
         <v>1</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J32" s="69" t="s">
-        <v>140</v>
+        <v>67</v>
+      </c>
+      <c r="J32" s="68" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6396,7 +6588,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
@@ -6405,10 +6597,10 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J33" s="69" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="J33" s="68" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6416,7 +6608,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C34" s="49"/>
       <c r="D34" s="45"/>
@@ -6425,9 +6617,9 @@
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
       <c r="I34" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="69"/>
+        <v>60</v>
+      </c>
+      <c r="J34" s="68"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="48"/>
@@ -6439,21 +6631,21 @@
       <c r="G35" s="45"/>
       <c r="H35" s="45"/>
       <c r="I35" s="43"/>
-      <c r="J35" s="69"/>
+      <c r="J35" s="68"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="127" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="129"/>
+      <c r="A36" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="135"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="42" t="s">
@@ -6463,10 +6655,10 @@
         <v>13</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>22</v>
@@ -6478,10 +6670,10 @@
         <v>16</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I37" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J37" s="42" t="s">
         <v>0</v>
@@ -6492,25 +6684,25 @@
         <v>1</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C38" s="49"/>
       <c r="D38" s="45"/>
       <c r="E38" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G38" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J38" s="69" t="s">
-        <v>145</v>
+        <v>67</v>
+      </c>
+      <c r="J38" s="68" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="33">
@@ -6518,25 +6710,25 @@
         <v>2</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C39" s="49"/>
       <c r="D39" s="45"/>
       <c r="E39" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J39" s="69" t="s">
-        <v>135</v>
+        <v>67</v>
+      </c>
+      <c r="J39" s="68" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -6544,145 +6736,145 @@
         <v>3</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C40" s="49"/>
       <c r="D40" s="45"/>
       <c r="E40" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="F40" s="45" t="s">
-        <v>119</v>
-      </c>
       <c r="G40" s="45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H40" s="45"/>
       <c r="I40" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J40" s="69"/>
+        <v>67</v>
+      </c>
+      <c r="J40" s="68"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="48">
         <v>4</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="45"/>
       <c r="E41" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H41" s="45"/>
       <c r="I41" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J41" s="69"/>
+        <v>67</v>
+      </c>
+      <c r="J41" s="68"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="48">
         <v>5</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G42" s="45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H42" s="45"/>
       <c r="I42" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J42" s="69"/>
+        <v>67</v>
+      </c>
+      <c r="J42" s="68"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="48">
         <v>6</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C43" s="49"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G43" s="45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H43" s="45"/>
       <c r="I43" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J43" s="69"/>
+        <v>129</v>
+      </c>
+      <c r="J43" s="68"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="48">
         <v>7</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C44" s="49"/>
       <c r="D44" s="45"/>
       <c r="E44" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G44" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H44" s="45"/>
       <c r="I44" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J44" s="69"/>
+        <v>129</v>
+      </c>
+      <c r="J44" s="68"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="48">
         <v>8</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C45" s="49"/>
       <c r="D45" s="45"/>
       <c r="E45" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G45" s="45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H45" s="45"/>
       <c r="I45" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45" s="69" t="s">
-        <v>137</v>
+        <v>67</v>
+      </c>
+      <c r="J45" s="68" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -6690,99 +6882,99 @@
         <v>9</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C46" s="49"/>
       <c r="D46" s="45"/>
       <c r="E46" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G46" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H46" s="45"/>
       <c r="I46" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="69"/>
+        <v>129</v>
+      </c>
+      <c r="J46" s="68"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="48">
         <v>10</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C47" s="49"/>
       <c r="D47" s="45"/>
       <c r="E47" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G47" s="45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H47" s="45"/>
       <c r="I47" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J47" s="69"/>
+        <v>129</v>
+      </c>
+      <c r="J47" s="68"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="48">
         <v>11</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C48" s="49"/>
       <c r="D48" s="45"/>
       <c r="E48" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F48" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="45" t="s">
         <v>127</v>
-      </c>
-      <c r="G48" s="45" t="s">
-        <v>130</v>
       </c>
       <c r="H48" s="45"/>
       <c r="I48" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J48" s="69"/>
+        <v>129</v>
+      </c>
+      <c r="J48" s="68"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="48">
         <v>12</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C49" s="49"/>
       <c r="D49" s="45"/>
       <c r="E49" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F49" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="45" t="s">
         <v>128</v>
-      </c>
-      <c r="G49" s="45" t="s">
-        <v>131</v>
       </c>
       <c r="H49" s="43">
         <v>1</v>
       </c>
       <c r="I49" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J49" s="69" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="J49" s="68" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -6790,7 +6982,7 @@
         <v>13</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C50" s="49"/>
       <c r="D50" s="45"/>
@@ -6799,10 +6991,10 @@
       <c r="G50" s="45"/>
       <c r="H50" s="45"/>
       <c r="I50" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J50" s="69" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="J50" s="68" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -6810,7 +7002,7 @@
         <v>14</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C51" s="49"/>
       <c r="D51" s="45"/>
@@ -6819,9 +7011,9 @@
       <c r="G51" s="45"/>
       <c r="H51" s="45"/>
       <c r="I51" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J51" s="69"/>
+        <v>60</v>
+      </c>
+      <c r="J51" s="68"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="48"/>
@@ -6836,18 +7028,18 @@
       <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="127" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="128"/>
-      <c r="C53" s="128"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="128"/>
-      <c r="H53" s="128"/>
-      <c r="I53" s="128"/>
-      <c r="J53" s="129"/>
+      <c r="A53" s="133" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="134"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="134"/>
+      <c r="J53" s="135"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="42" t="s">
@@ -6857,10 +7049,10 @@
         <v>13</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E54" s="42" t="s">
         <v>22</v>
@@ -6872,10 +7064,10 @@
         <v>16</v>
       </c>
       <c r="H54" s="42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I54" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J54" s="42" t="s">
         <v>0</v>
@@ -6886,25 +7078,25 @@
         <v>1</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C55" s="49"/>
       <c r="D55" s="45"/>
       <c r="E55" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G55" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H55" s="45"/>
       <c r="I55" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J55" s="69" t="s">
-        <v>145</v>
+        <v>67</v>
+      </c>
+      <c r="J55" s="68" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="33">
@@ -6912,25 +7104,25 @@
         <v>2</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C56" s="49"/>
       <c r="D56" s="45"/>
       <c r="E56" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F56" s="45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G56" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H56" s="45"/>
       <c r="I56" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J56" s="69" t="s">
-        <v>135</v>
+        <v>67</v>
+      </c>
+      <c r="J56" s="68" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -6938,171 +7130,171 @@
         <v>3</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C57" s="49"/>
       <c r="D57" s="45"/>
       <c r="E57" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F57" s="45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G57" s="45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H57" s="45"/>
       <c r="I57" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J57" s="69"/>
+        <v>67</v>
+      </c>
+      <c r="J57" s="68"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="48">
         <v>4</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="49"/>
       <c r="D58" s="45"/>
       <c r="E58" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G58" s="45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H58" s="45"/>
       <c r="I58" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J58" s="69"/>
+        <v>67</v>
+      </c>
+      <c r="J58" s="68"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="48">
         <v>5</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C59" s="49"/>
       <c r="D59" s="45"/>
       <c r="E59" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F59" s="45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G59" s="45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H59" s="45"/>
       <c r="I59" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J59" s="69"/>
+        <v>129</v>
+      </c>
+      <c r="J59" s="68"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="48">
         <v>6</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C60" s="49"/>
       <c r="D60" s="45"/>
       <c r="E60" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F60" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G60" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H60" s="45"/>
       <c r="I60" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J60" s="69"/>
+        <v>129</v>
+      </c>
+      <c r="J60" s="68"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="48">
         <v>7</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C61" s="49"/>
       <c r="D61" s="45"/>
       <c r="E61" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G61" s="45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H61" s="45"/>
       <c r="I61" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J61" s="69"/>
+        <v>129</v>
+      </c>
+      <c r="J61" s="68"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="48">
         <v>8</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C62" s="49"/>
       <c r="D62" s="45"/>
       <c r="E62" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F62" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="45" t="s">
         <v>127</v>
-      </c>
-      <c r="G62" s="45" t="s">
-        <v>130</v>
       </c>
       <c r="H62" s="45"/>
       <c r="I62" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J62" s="69"/>
+        <v>129</v>
+      </c>
+      <c r="J62" s="68"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="48">
         <v>9</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C63" s="49"/>
       <c r="D63" s="45"/>
       <c r="E63" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F63" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" s="45" t="s">
         <v>128</v>
-      </c>
-      <c r="G63" s="45" t="s">
-        <v>131</v>
       </c>
       <c r="H63" s="43">
         <v>1</v>
       </c>
       <c r="I63" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J63" s="69" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="J63" s="68" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -7110,7 +7302,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C64" s="49"/>
       <c r="D64" s="45"/>
@@ -7119,10 +7311,10 @@
       <c r="G64" s="45"/>
       <c r="H64" s="45"/>
       <c r="I64" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J64" s="69" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="J64" s="68" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -7130,7 +7322,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C65" s="49"/>
       <c r="D65" s="45"/>
@@ -7139,35 +7331,35 @@
       <c r="G65" s="45"/>
       <c r="H65" s="45"/>
       <c r="I65" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J65" s="69"/>
+        <v>60</v>
+      </c>
+      <c r="J65" s="68"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="71"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="74"/>
-      <c r="J66" s="75"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="74"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="127" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" s="128"/>
-      <c r="C67" s="128"/>
-      <c r="D67" s="128"/>
-      <c r="E67" s="128"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="128"/>
-      <c r="H67" s="128"/>
-      <c r="I67" s="128"/>
-      <c r="J67" s="129"/>
+      <c r="A67" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="134"/>
+      <c r="C67" s="134"/>
+      <c r="D67" s="134"/>
+      <c r="E67" s="134"/>
+      <c r="F67" s="134"/>
+      <c r="G67" s="134"/>
+      <c r="H67" s="134"/>
+      <c r="I67" s="134"/>
+      <c r="J67" s="135"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="42" t="s">
@@ -7177,10 +7369,10 @@
         <v>13</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E68" s="42" t="s">
         <v>22</v>
@@ -7192,10 +7384,10 @@
         <v>16</v>
       </c>
       <c r="H68" s="42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I68" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J68" s="42" t="s">
         <v>0</v>
@@ -7206,25 +7398,25 @@
         <v>1</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C69" s="49"/>
       <c r="D69" s="45"/>
       <c r="E69" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F69" s="45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G69" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H69" s="45"/>
       <c r="I69" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J69" s="69" t="s">
-        <v>145</v>
+        <v>67</v>
+      </c>
+      <c r="J69" s="68" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -7232,7 +7424,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C70" s="49"/>
       <c r="D70" s="45"/>
@@ -7241,10 +7433,10 @@
       <c r="G70" s="45"/>
       <c r="H70" s="45"/>
       <c r="I70" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J70" s="69" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="J70" s="68" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -7252,7 +7444,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C71" s="49"/>
       <c r="D71" s="45"/>
@@ -7261,9 +7453,9 @@
       <c r="G71" s="45"/>
       <c r="H71" s="45"/>
       <c r="I71" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J71" s="69"/>
+        <v>60</v>
+      </c>
+      <c r="J71" s="68"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="48"/>
@@ -7275,7 +7467,7 @@
       <c r="G72" s="45"/>
       <c r="H72" s="45"/>
       <c r="I72" s="43"/>
-      <c r="J72" s="69"/>
+      <c r="J72" s="68"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="48"/>
@@ -7287,7 +7479,7 @@
       <c r="G73" s="45"/>
       <c r="H73" s="45"/>
       <c r="I73" s="43"/>
-      <c r="J73" s="69"/>
+      <c r="J73" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
+++ b/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="165">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -780,6 +780,14 @@
   <si>
     <t>1.Menu 功能設定檔刪除</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>true = 執行成功; false = 執行失敗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>true = 執行成功; false = 執行失敗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1473,6 +1481,9 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1548,6 +1559,75 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1575,66 +1655,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1684,9 +1704,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1749,15 +1766,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2810,13 +2818,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>9524</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>77</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>171449</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2861,13 +2869,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>78</xdr:row>
+          <xdr:row>83</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>92</xdr:row>
+          <xdr:row>97</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4318,12 +4326,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
@@ -4366,7 +4374,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="78" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -4378,7 +4386,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="77"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="34" t="s">
         <v>73</v>
       </c>
@@ -4702,10 +4710,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4720,15 +4728,15 @@
       <c r="A1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="79" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="79"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="79"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4745,208 +4753,208 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="97"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="100"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="82" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="85"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="86" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="86" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="93" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="87"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93" t="s">
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="87"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="88"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="88" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="88"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="89"/>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="89"/>
-      <c r="K78" s="89"/>
-      <c r="L78" s="90"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="90"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="90"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="90"/>
+      <c r="I83" s="90"/>
+      <c r="J83" s="90"/>
+      <c r="K83" s="90"/>
+      <c r="L83" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4959,7 +4967,7 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A78:L78"/>
+    <mergeCell ref="A83:L83"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -4997,8 +5005,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>77</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>82</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5016,13 +5024,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>78</xdr:row>
+                <xdr:row>83</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>92</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -5055,7 +5063,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -5086,7 +5094,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="131" t="s">
+      <c r="K1" s="135" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="50"/>
@@ -5107,7 +5115,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="132"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5120,7 +5128,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="132"/>
+      <c r="K3" s="136"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5135,152 +5143,152 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="98"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="100"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="137"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="140"/>
+      <c r="A7" s="141"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="137"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="140"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="144"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="141"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="143"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="147"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="144" t="s">
+      <c r="A13" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="120"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -5289,70 +5297,70 @@
       <c r="B16" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="123"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="115"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="126"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="121"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="127"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="124"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -5361,84 +5369,84 @@
       <c r="B21" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="123"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="115"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="103"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="130"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="109"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="133"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="115"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="104"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="112"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="56" t="s">
@@ -5453,14 +5461,14 @@
       <c r="D27" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="59">
@@ -5472,17 +5480,17 @@
       <c r="C28" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="170" t="s">
+      <c r="D28" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="147" t="s">
+      <c r="E28" s="110" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="172"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="112"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5496,16 +5504,16 @@
       <c r="C29" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="170" t="s">
+      <c r="D29" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="147" t="s">
+      <c r="E29" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
       <c r="J29" s="75"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
@@ -5518,17 +5526,17 @@
       <c r="C30" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="170" t="s">
+      <c r="D30" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="147" t="s">
+      <c r="E30" s="110" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="172"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="112"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1" ht="33">
       <c r="A31" s="59">
@@ -5540,17 +5548,17 @@
       <c r="C31" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="170" t="s">
+      <c r="D31" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="147" t="s">
+      <c r="E31" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="172"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="112"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="59">
@@ -5562,16 +5570,16 @@
       <c r="C32" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="170" t="s">
+      <c r="D32" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="147" t="s">
+      <c r="E32" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
       <c r="J32" s="75"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1" ht="33">
@@ -5584,197 +5592,197 @@
       <c r="C33" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="170" t="s">
+      <c r="D33" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="147" t="s">
+      <c r="E33" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="172"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="112"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="117"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="104"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="61"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="104"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="133" t="s">
+      <c r="A36" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="135"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="139"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="151"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="152"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="155"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="153"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="155"/>
+      <c r="A38" s="156"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="153"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="155"/>
+      <c r="A39" s="156"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="158"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="156"/>
-      <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="158"/>
+      <c r="A40" s="159"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="161"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="164" t="s">
+      <c r="A41" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="166"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="169"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="162" t="s">
+      <c r="B42" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="147" t="s">
+      <c r="C42" s="166"/>
+      <c r="D42" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="88"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="159"/>
-      <c r="B43" s="160"/>
-      <c r="C43" s="160"/>
-      <c r="D43" s="160"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="160"/>
-      <c r="I43" s="160"/>
-      <c r="J43" s="161"/>
+      <c r="A43" s="162"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="164"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="62"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="149"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="152"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="62"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="149"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="152"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="159"/>
-      <c r="B46" s="160"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="160"/>
-      <c r="E46" s="160"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="160"/>
-      <c r="I46" s="160"/>
-      <c r="J46" s="161"/>
+      <c r="A46" s="162"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="163"/>
+      <c r="J46" s="164"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="62"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="148"/>
-      <c r="J47" s="149"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="152"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="63" t="s">
@@ -5797,14 +5805,14 @@
       <c r="B49" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="115"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="87"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="88"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="62">
@@ -5813,14 +5821,14 @@
       <c r="B50" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -5886,8 +5894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5917,7 +5925,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="131" t="s">
+      <c r="K1" s="135" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="39"/>
@@ -5944,7 +5952,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="132"/>
+      <c r="K2" s="136"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5962,7 +5970,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="132"/>
+      <c r="K3" s="136"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -6006,18 +6014,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -6084,32 +6092,32 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="170" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="169"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="172"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="135"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="139"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -6342,18 +6350,18 @@
       <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -6512,18 +6520,18 @@
       <c r="J29" s="68"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1">
-      <c r="A30" s="133" t="s">
+      <c r="A30" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="135"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="139"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="42" t="s">
@@ -6634,18 +6642,18 @@
       <c r="J35" s="68"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="133" t="s">
+      <c r="A36" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="135"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="139"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="42" t="s">
@@ -6994,7 +7002,7 @@
         <v>60</v>
       </c>
       <c r="J50" s="68" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -7028,18 +7036,18 @@
       <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="133" t="s">
+      <c r="A53" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="134"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
-      <c r="J53" s="135"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="138"/>
+      <c r="F53" s="138"/>
+      <c r="G53" s="138"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
+      <c r="J53" s="139"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="42" t="s">
@@ -7314,7 +7322,7 @@
         <v>60</v>
       </c>
       <c r="J64" s="68" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -7348,18 +7356,18 @@
       <c r="J66" s="74"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="133" t="s">
+      <c r="A67" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="B67" s="134"/>
-      <c r="C67" s="134"/>
-      <c r="D67" s="134"/>
-      <c r="E67" s="134"/>
-      <c r="F67" s="134"/>
-      <c r="G67" s="134"/>
-      <c r="H67" s="134"/>
-      <c r="I67" s="134"/>
-      <c r="J67" s="135"/>
+      <c r="B67" s="138"/>
+      <c r="C67" s="138"/>
+      <c r="D67" s="138"/>
+      <c r="E67" s="138"/>
+      <c r="F67" s="138"/>
+      <c r="G67" s="138"/>
+      <c r="H67" s="138"/>
+      <c r="I67" s="138"/>
+      <c r="J67" s="139"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="42" t="s">

--- a/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
+++ b/APF/RA006/RA006_APF0401_功能清單資料轉入.xlsx
@@ -9,26 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
     <sheet name="IPO" sheetId="43" r:id="rId4"/>
-    <sheet name="畫面_APF0401_Menu" sheetId="7" r:id="rId5"/>
+    <sheet name="Function_APF0401" sheetId="44" r:id="rId5"/>
     <sheet name="欄位_APF0401_Menu" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Function_APF0401!$A$1:$J$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0401_Menu!$A$1:$J$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0401_Menu!$A$1:$J$67</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">Function_APF0401!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0401_Menu!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0401_Menu!$1:$5</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0401_Menu!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Function_APF0401!#REF!</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="153">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -55,46 +55,6 @@
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>參考資料說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>共通元件</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事前檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特殊說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>應用時機</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>內容說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事後檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前端檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>後端檢核</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>項目名稱</t>
@@ -128,10 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>修改說明</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -203,22 +159,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Global 參數</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -292,34 +232,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>預設值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>查詢人員</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:無
-1.1 SESSION內容:
-1.2 成立條件:</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>IPO Model</t>
@@ -459,10 +377,6 @@
   </si>
   <si>
     <t>APF0401_Menu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0401_Menu</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -655,22 +569,6 @@
   <si>
     <t>限制大寫</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0401_Menu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：呼叫功能清單路徑刪除WebAPI時</t>
-    </r>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4.1 功能清單路徑新增</t>
@@ -709,15 +607,43 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>true = 執行成功; false = 執行失敗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>true = 執行成功; false = 執行失敗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>Function說明</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call methods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要參數</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>主要處理內容</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>APFMenuRootIF</t>
+    <t>路徑設定檔WebApi</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -749,7 +675,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>APFMenuNodeIF</t>
+    <t>功能設定檔WebApi</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -782,19 +708,31 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>true = 執行成功; false = 執行失敗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>true = 執行成功; false = 執行失敗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>特殊說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>應用時機</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>內容說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>參考資料說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通元件</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -949,13 +887,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="標楷體"/>
@@ -1007,7 +938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1177,15 +1108,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="double">
@@ -1276,7 +1198,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1353,31 +1275,31 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1408,21 +1330,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1437,9 +1350,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1478,19 +1388,61 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1502,24 +1454,9 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1529,44 +1466,74 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1583,189 +1550,24 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2818,13 +2620,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9524</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>81</xdr:row>
-          <xdr:rowOff>171449</xdr:rowOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2931,11 +2733,11 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1627" name="群組 1"/>
+        <xdr:cNvPr id="2" name="群組 1"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2943,14 +2745,14 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="10277475" cy="590550"/>
+          <a:ext cx="10439400" cy="571500"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1049" name="Rectangle 25"/>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3023,7 +2825,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1050" name="Rectangle 26"/>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3100,7 +2902,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1051" name="Rectangle 27"/>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3177,7 +2979,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1052" name="Rectangle 28"/>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3254,7 +3056,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1053" name="Rectangle 29"/>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3328,7 +3130,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1054" name="Rectangle 30"/>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3404,7 +3206,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1643" name="Line 31"/>
+          <xdr:cNvPr id="9" name="Line 31"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4326,73 +4128,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="A1" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="78" t="s">
-        <v>55</v>
+      <c r="A5" s="76" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="78"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="34" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4554,13 +4356,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
@@ -4576,12 +4378,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="69">
+        <v>23</v>
+      </c>
+      <c r="D6" s="65">
         <v>41569</v>
       </c>
       <c r="E6" s="12"/>
@@ -4712,7 +4514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
@@ -4726,17 +4528,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="79" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="M1" s="89" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="80"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="80"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4753,216 +4555,211 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="98"/>
+      <c r="A5" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="99"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="101"/>
+      <c r="A6" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="88"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="83"/>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="85"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="83"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
+      <c r="A10" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="85"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A14" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="83" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="85"/>
-    </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="88"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="88"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="B83" s="90"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="90"/>
-      <c r="F83" s="90"/>
-      <c r="G83" s="90"/>
-      <c r="H83" s="90"/>
-      <c r="I83" s="90"/>
-      <c r="J83" s="90"/>
-      <c r="K83" s="90"/>
-      <c r="L83" s="91"/>
+      <c r="B83" s="95"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="95"/>
+      <c r="E83" s="95"/>
+      <c r="F83" s="95"/>
+      <c r="G83" s="95"/>
+      <c r="H83" s="95"/>
+      <c r="I83" s="95"/>
+      <c r="J83" s="95"/>
+      <c r="K83" s="95"/>
+      <c r="L83" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -4979,6 +4776,11 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -5060,17 +4862,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="52" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="51" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="50" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="50" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="50" customWidth="1"/>
@@ -5083,19 +4884,19 @@
     <col min="12" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="51" customFormat="1" ht="17.25" thickTop="1">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="135" t="s">
-        <v>48</v>
+    <row r="1" spans="1:17" s="72" customFormat="1" ht="17.25" thickTop="1">
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="115" t="s">
+        <v>125</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -5104,777 +4905,386 @@
       <c r="P1" s="50"/>
       <c r="Q1" s="50"/>
     </row>
-    <row r="2" spans="1:17" s="51" customFormat="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="136"/>
-    </row>
-    <row r="3" spans="1:17" s="51" customFormat="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="136"/>
+    <row r="2" spans="1:17" s="72" customFormat="1">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="116"/>
+    </row>
+    <row r="3" spans="1:17" s="72" customFormat="1">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="116"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="104"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="140" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85"/>
-    </row>
-    <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
-    </row>
-    <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="141"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="141"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="147"/>
-    </row>
-    <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="140" t="s">
+      <c r="A5" s="120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
+    </row>
+    <row r="6" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="123" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+    </row>
+    <row r="7" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="56">
+        <v>1</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+    </row>
+    <row r="8" spans="1:17" s="51" customFormat="1">
+      <c r="A8" s="56">
+        <v>2</v>
+      </c>
+      <c r="B8" s="131"/>
+      <c r="C8" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="74"/>
+    </row>
+    <row r="9" spans="1:17" s="51" customFormat="1">
+      <c r="A9" s="56">
+        <v>3</v>
+      </c>
+      <c r="B9" s="132"/>
+      <c r="C9" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="126"/>
+    </row>
+    <row r="10" spans="1:17" s="51" customFormat="1" ht="33">
+      <c r="A10" s="56">
+        <v>4</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
+    </row>
+    <row r="11" spans="1:17" s="51" customFormat="1" ht="33">
+      <c r="A11" s="56">
         <v>5</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
-    </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
-    </row>
-    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="140" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85"/>
-    </row>
-    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="148" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="88"/>
-    </row>
-    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="140" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85"/>
-    </row>
-    <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
-    </row>
-    <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="55" t="s">
+      <c r="B11" s="131"/>
+      <c r="C11" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="74"/>
+    </row>
+    <row r="12" spans="1:17" s="52" customFormat="1" ht="33">
+      <c r="A12" s="56">
         <v>6</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="115"/>
-    </row>
-    <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="121"/>
-    </row>
-    <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="122"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
-    </row>
-    <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
-    </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="116" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-    </row>
-    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="115"/>
-    </row>
-    <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
-      <c r="A22" s="55">
+      <c r="B12" s="132"/>
+      <c r="C12" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="126"/>
+    </row>
+    <row r="13" spans="1:17" s="52" customFormat="1">
+      <c r="A13" s="103"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="104"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="110"/>
+      <c r="D15" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="105"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="107"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="58"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="102"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="58"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="102"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="105"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="107"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="58"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="102"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="58">
         <v>1</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="127"/>
-    </row>
-    <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
-      <c r="A23" s="55">
+      <c r="B22" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="103"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="58">
         <v>2</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="130"/>
-    </row>
-    <row r="24" spans="1:12" s="52" customFormat="1">
-      <c r="A24" s="55">
-        <v>3</v>
-      </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="133"/>
-    </row>
-    <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="104"/>
-    </row>
-    <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="105" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
-    </row>
-    <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="108" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-    </row>
-    <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="59">
-        <v>1</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="110" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-    </row>
-    <row r="29" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
-      <c r="A29" s="59">
-        <v>2</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="110" t="s">
+      <c r="B23" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="75"/>
-    </row>
-    <row r="30" spans="1:12" s="52" customFormat="1">
-      <c r="A30" s="59">
-        <v>3</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="112"/>
-    </row>
-    <row r="31" spans="1:12" s="52" customFormat="1" ht="33">
-      <c r="A31" s="59">
-        <v>4</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="110" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="112"/>
-    </row>
-    <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="59">
-        <v>5</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="110" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="75"/>
-    </row>
-    <row r="33" spans="1:10" s="54" customFormat="1" ht="33">
-      <c r="A33" s="59">
-        <v>6</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="110" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="112"/>
-    </row>
-    <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="104"/>
-    </row>
-    <row r="35" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="61"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="104"/>
-    </row>
-    <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="138"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="139"/>
-    </row>
-    <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="153" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="155"/>
-    </row>
-    <row r="38" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="156"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="158"/>
-    </row>
-    <row r="39" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="156"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="158"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="159"/>
-      <c r="B40" s="160"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="161"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="167" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="168"/>
-      <c r="C41" s="168"/>
-      <c r="D41" s="168"/>
-      <c r="E41" s="168"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="169"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="165" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="166"/>
-      <c r="D42" s="110" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="88"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="162"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="164"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="62"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="152"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="62"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="151"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="152"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="162"/>
-      <c r="B46" s="163"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="163"/>
-      <c r="J46" s="164"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="62"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="151"/>
-      <c r="F47" s="151"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="152"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="66"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="62">
-        <v>1</v>
-      </c>
-      <c r="B49" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="102"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="88"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="62">
-        <v>2</v>
-      </c>
-      <c r="B50" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="134"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="A37:J40"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
+  <mergeCells count="26">
     <mergeCell ref="A19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:J12"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:J9"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K1" location="總表!A1" display="回總表"/>
     <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
@@ -5925,8 +5335,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="135" t="s">
-        <v>48</v>
+      <c r="K1" s="115" t="s">
+        <v>33</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -5952,7 +5362,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="136"/>
+      <c r="K2" s="116"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5970,7 +5380,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="136"/>
+      <c r="K3" s="116"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -6014,18 +5424,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="170" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
+      <c r="A6" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -6038,28 +5448,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -6092,60 +5502,60 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="170" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
-    </row>
-    <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="137" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="139"/>
+      <c r="A10" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="129"/>
+    </row>
+    <row r="11" spans="1:23" s="51" customFormat="1">
+      <c r="A11" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="119"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -6156,25 +5566,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>137</v>
+        <v>47</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -6182,121 +5592,121 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="48">
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="48">
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="48">
         <v>5</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="48">
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="68" t="s">
-        <v>133</v>
+        <v>47</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6304,7 +5714,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
@@ -6313,10 +5723,10 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="68" t="s">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6324,7 +5734,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
@@ -6333,9 +5743,9 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="68"/>
+        <v>40</v>
+      </c>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="48"/>
@@ -6347,49 +5757,49 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="68"/>
-    </row>
-    <row r="22" spans="1:10" s="52" customFormat="1">
-      <c r="A22" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="139"/>
+      <c r="J21" s="64"/>
+    </row>
+    <row r="22" spans="1:10" s="51" customFormat="1">
+      <c r="A22" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J23" s="42" t="s">
         <v>0</v>
@@ -6400,25 +5810,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="68" t="s">
-        <v>137</v>
+        <v>47</v>
+      </c>
+      <c r="J24" s="64" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6426,55 +5836,55 @@
         <v>2</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="J25" s="64"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="48">
         <v>3</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H26" s="43"/>
       <c r="I26" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="J26" s="64"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="48">
         <v>4</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
@@ -6483,10 +5893,10 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="68" t="s">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="J27" s="64" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6494,7 +5904,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="45"/>
@@ -6503,9 +5913,9 @@
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
       <c r="I28" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" s="68"/>
+        <v>40</v>
+      </c>
+      <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="48"/>
@@ -6517,49 +5927,49 @@
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
       <c r="I29" s="43"/>
-      <c r="J29" s="68"/>
-    </row>
-    <row r="30" spans="1:10" s="52" customFormat="1">
-      <c r="A30" s="137" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="139"/>
+      <c r="J29" s="64"/>
+    </row>
+    <row r="30" spans="1:10" s="51" customFormat="1">
+      <c r="A30" s="117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="119"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I31" s="42" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J31" s="42" t="s">
         <v>0</v>
@@ -6570,25 +5980,25 @@
         <v>1</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J32" s="68" t="s">
-        <v>137</v>
+        <v>47</v>
+      </c>
+      <c r="J32" s="64" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6596,7 +6006,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
@@ -6605,10 +6015,10 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J33" s="68" t="s">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="J33" s="64" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6616,7 +6026,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C34" s="49"/>
       <c r="D34" s="45"/>
@@ -6625,9 +6035,9 @@
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
       <c r="I34" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J34" s="68"/>
+        <v>40</v>
+      </c>
+      <c r="J34" s="64"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="48"/>
@@ -6639,49 +6049,49 @@
       <c r="G35" s="45"/>
       <c r="H35" s="45"/>
       <c r="I35" s="43"/>
-      <c r="J35" s="68"/>
+      <c r="J35" s="64"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="138"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="139"/>
+      <c r="A36" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="119"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I37" s="42" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J37" s="42" t="s">
         <v>0</v>
@@ -6692,25 +6102,25 @@
         <v>1</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C38" s="49"/>
       <c r="D38" s="45"/>
       <c r="E38" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G38" s="45" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J38" s="68" t="s">
-        <v>142</v>
+        <v>47</v>
+      </c>
+      <c r="J38" s="64" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="33">
@@ -6718,25 +6128,25 @@
         <v>2</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C39" s="49"/>
       <c r="D39" s="45"/>
       <c r="E39" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" s="68" t="s">
-        <v>132</v>
+        <v>47</v>
+      </c>
+      <c r="J39" s="64" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -6744,145 +6154,145 @@
         <v>3</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C40" s="49"/>
       <c r="D40" s="45"/>
       <c r="E40" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="G40" s="45" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H40" s="45"/>
       <c r="I40" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J40" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="J40" s="64"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="48">
         <v>4</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="45"/>
       <c r="E41" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H41" s="45"/>
       <c r="I41" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J41" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="J41" s="64"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="48">
         <v>5</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G42" s="45" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H42" s="45"/>
       <c r="I42" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J42" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="J42" s="64"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="48">
         <v>6</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C43" s="49"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G43" s="45" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H43" s="45"/>
       <c r="I43" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J43" s="68"/>
+        <v>108</v>
+      </c>
+      <c r="J43" s="64"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="48">
         <v>7</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C44" s="49"/>
       <c r="D44" s="45"/>
       <c r="E44" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="G44" s="45" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H44" s="45"/>
       <c r="I44" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J44" s="68"/>
+        <v>108</v>
+      </c>
+      <c r="J44" s="64"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="48">
         <v>8</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C45" s="49"/>
       <c r="D45" s="45"/>
       <c r="E45" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G45" s="45" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H45" s="45"/>
       <c r="I45" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J45" s="68" t="s">
-        <v>134</v>
+        <v>47</v>
+      </c>
+      <c r="J45" s="64" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -6890,99 +6300,99 @@
         <v>9</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C46" s="49"/>
       <c r="D46" s="45"/>
       <c r="E46" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="G46" s="45" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H46" s="45"/>
       <c r="I46" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J46" s="68"/>
+        <v>108</v>
+      </c>
+      <c r="J46" s="64"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="48">
         <v>10</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C47" s="49"/>
       <c r="D47" s="45"/>
       <c r="E47" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G47" s="45" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H47" s="45"/>
       <c r="I47" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J47" s="68"/>
+        <v>108</v>
+      </c>
+      <c r="J47" s="64"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="48">
         <v>11</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C48" s="49"/>
       <c r="D48" s="45"/>
       <c r="E48" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H48" s="45"/>
       <c r="I48" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J48" s="68"/>
+        <v>108</v>
+      </c>
+      <c r="J48" s="64"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="48">
         <v>12</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C49" s="49"/>
       <c r="D49" s="45"/>
       <c r="E49" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="G49" s="45" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H49" s="43">
         <v>1</v>
       </c>
       <c r="I49" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J49" s="68" t="s">
-        <v>130</v>
+        <v>108</v>
+      </c>
+      <c r="J49" s="64" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -6990,7 +6400,7 @@
         <v>13</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C50" s="49"/>
       <c r="D50" s="45"/>
@@ -6999,10 +6409,10 @@
       <c r="G50" s="45"/>
       <c r="H50" s="45"/>
       <c r="I50" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J50" s="68" t="s">
-        <v>164</v>
+        <v>40</v>
+      </c>
+      <c r="J50" s="64" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -7010,7 +6420,7 @@
         <v>14</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C51" s="49"/>
       <c r="D51" s="45"/>
@@ -7019,9 +6429,9 @@
       <c r="G51" s="45"/>
       <c r="H51" s="45"/>
       <c r="I51" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J51" s="68"/>
+        <v>40</v>
+      </c>
+      <c r="J51" s="64"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="48"/>
@@ -7036,46 +6446,46 @@
       <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="137" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="138"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="138"/>
-      <c r="H53" s="138"/>
-      <c r="I53" s="138"/>
-      <c r="J53" s="139"/>
+      <c r="A53" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="119"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H54" s="42" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I54" s="42" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J54" s="42" t="s">
         <v>0</v>
@@ -7086,25 +6496,25 @@
         <v>1</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C55" s="49"/>
       <c r="D55" s="45"/>
       <c r="E55" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G55" s="45" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H55" s="45"/>
       <c r="I55" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J55" s="68" t="s">
-        <v>142</v>
+        <v>47</v>
+      </c>
+      <c r="J55" s="64" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="33">
@@ -7112,25 +6522,25 @@
         <v>2</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C56" s="49"/>
       <c r="D56" s="45"/>
       <c r="E56" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F56" s="45" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G56" s="45" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H56" s="45"/>
       <c r="I56" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J56" s="68" t="s">
-        <v>132</v>
+        <v>47</v>
+      </c>
+      <c r="J56" s="64" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -7138,171 +6548,171 @@
         <v>3</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C57" s="49"/>
       <c r="D57" s="45"/>
       <c r="E57" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F57" s="45" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G57" s="45" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H57" s="45"/>
       <c r="I57" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J57" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="J57" s="64"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="48">
         <v>4</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C58" s="49"/>
       <c r="D58" s="45"/>
       <c r="E58" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G58" s="45" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H58" s="45"/>
       <c r="I58" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J58" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="J58" s="64"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="48">
         <v>5</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C59" s="49"/>
       <c r="D59" s="45"/>
       <c r="E59" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F59" s="45" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G59" s="45" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H59" s="45"/>
       <c r="I59" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J59" s="68"/>
+        <v>108</v>
+      </c>
+      <c r="J59" s="64"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="48">
         <v>6</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C60" s="49"/>
       <c r="D60" s="45"/>
       <c r="E60" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F60" s="45" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="G60" s="45" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H60" s="45"/>
       <c r="I60" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J60" s="68"/>
+        <v>108</v>
+      </c>
+      <c r="J60" s="64"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="48">
         <v>7</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C61" s="49"/>
       <c r="D61" s="45"/>
       <c r="E61" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G61" s="45" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H61" s="45"/>
       <c r="I61" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J61" s="68"/>
+        <v>108</v>
+      </c>
+      <c r="J61" s="64"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="48">
         <v>8</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C62" s="49"/>
       <c r="D62" s="45"/>
       <c r="E62" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F62" s="45" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="G62" s="45" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H62" s="45"/>
       <c r="I62" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J62" s="68"/>
+        <v>108</v>
+      </c>
+      <c r="J62" s="64"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="48">
         <v>9</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C63" s="49"/>
       <c r="D63" s="45"/>
       <c r="E63" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F63" s="45" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="G63" s="45" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H63" s="43">
         <v>1</v>
       </c>
       <c r="I63" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J63" s="68" t="s">
-        <v>130</v>
+        <v>108</v>
+      </c>
+      <c r="J63" s="64" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -7310,7 +6720,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C64" s="49"/>
       <c r="D64" s="45"/>
@@ -7319,10 +6729,10 @@
       <c r="G64" s="45"/>
       <c r="H64" s="45"/>
       <c r="I64" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J64" s="68" t="s">
-        <v>163</v>
+        <v>40</v>
+      </c>
+      <c r="J64" s="64" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -7330,7 +6740,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C65" s="49"/>
       <c r="D65" s="45"/>
@@ -7339,63 +6749,63 @@
       <c r="G65" s="45"/>
       <c r="H65" s="45"/>
       <c r="I65" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J65" s="68"/>
+        <v>40</v>
+      </c>
+      <c r="J65" s="64"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="70"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="74"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="70"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="B67" s="138"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="138"/>
-      <c r="E67" s="138"/>
-      <c r="F67" s="138"/>
-      <c r="G67" s="138"/>
-      <c r="H67" s="138"/>
-      <c r="I67" s="138"/>
-      <c r="J67" s="139"/>
+      <c r="A67" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="118"/>
+      <c r="C67" s="118"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="118"/>
+      <c r="G67" s="118"/>
+      <c r="H67" s="118"/>
+      <c r="I67" s="118"/>
+      <c r="J67" s="119"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H68" s="42" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I68" s="42" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J68" s="42" t="s">
         <v>0</v>
@@ -7406,25 +6816,25 @@
         <v>1</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C69" s="49"/>
       <c r="D69" s="45"/>
       <c r="E69" s="45" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F69" s="45" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G69" s="45" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H69" s="45"/>
       <c r="I69" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J69" s="68" t="s">
-        <v>142</v>
+        <v>47</v>
+      </c>
+      <c r="J69" s="64" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -7432,7 +6842,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C70" s="49"/>
       <c r="D70" s="45"/>
@@ -7441,10 +6851,10 @@
       <c r="G70" s="45"/>
       <c r="H70" s="45"/>
       <c r="I70" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J70" s="68" t="s">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="J70" s="64" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -7452,7 +6862,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C71" s="49"/>
       <c r="D71" s="45"/>
@@ -7461,9 +6871,9 @@
       <c r="G71" s="45"/>
       <c r="H71" s="45"/>
       <c r="I71" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J71" s="68"/>
+        <v>40</v>
+      </c>
+      <c r="J71" s="64"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="48"/>
@@ -7475,7 +6885,7 @@
       <c r="G72" s="45"/>
       <c r="H72" s="45"/>
       <c r="I72" s="43"/>
-      <c r="J72" s="68"/>
+      <c r="J72" s="64"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="48"/>
@@ -7487,7 +6897,7 @@
       <c r="G73" s="45"/>
       <c r="H73" s="45"/>
       <c r="I73" s="43"/>
-      <c r="J73" s="68"/>
+      <c r="J73" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="9">
